--- a/client/public/fichiers/ANNEXE 18 - TABLEAU CALCUL DE COUT.xlsx
+++ b/client/public/fichiers/ANNEXE 18 - TABLEAU CALCUL DE COUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://219295cocerto-my.sharepoint.com/personal/lgombaud_cocerto_fr/Documents/SAUVEGARDE LOCAL LG/MEMOIRE DEC/MEMOIRE/ANNEXE/ANNEXE 18 - TABLEAU CALCUL DE COUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{BE1BE009-0614-420E-B25A-756957A84A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00DF44CE-4B7B-48D6-B90F-8A497DF45573}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{9461C862-B0F5-4249-AC05-E3EC29721622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{287B892D-E390-41C7-86DB-4AB6698879FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E763F31E-31DD-4C0D-91DE-0AF7FFD6452D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{E763F31E-31DD-4C0D-91DE-0AF7FFD6452D}"/>
   </bookViews>
   <sheets>
     <sheet name="📘 Notice" sheetId="7" r:id="rId1"/>
@@ -22,8 +22,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'👤 Coût élève'!$A$1:$C$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'💰 Coût total'!$A$1:$G$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'📊 Données comptables'!$A$1:$G$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'📌 Indicateurs de pilotage '!$A$1:$C$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'📊 Données comptables'!$A$1:$G$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'📌 Indicateurs de pilotage '!$A$1:$C$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'📘 Notice'!$A$1:$A$117</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="236">
   <si>
     <t>NOTICE</t>
   </si>
@@ -551,9 +551,6 @@
     <t>• Budget Année N : à compléter une seule fois en début d’exercice.</t>
   </si>
   <si>
-    <t>• Saisie trimestrielle : chaque trimestre, reporter les montants de la balance comptable (exemple : pour le T1 si l’exercice coïncide avec l’année civile, période du 01/01/N au 31/03/N).</t>
-  </si>
-  <si>
     <r>
       <t>Les comptes sont automatiquement classés par secteur d’activité (</t>
     </r>
@@ -1620,9 +1617,6 @@
   </si>
   <si>
     <t>Calcul du coût total</t>
-  </si>
-  <si>
-    <t>Catégorie de charge</t>
   </si>
   <si>
     <t>Budget Annuel (€)</t>
@@ -1861,9 +1855,6 @@
     <t>Marge brute sur activité de production</t>
   </si>
   <si>
-    <t>Chiffre d’affaires x Taux de marge brute théorique sur production</t>
-  </si>
-  <si>
     <t>Marge nette sur activité de production</t>
   </si>
   <si>
@@ -1925,6 +1916,33 @@
   </si>
   <si>
     <t>T - Taxe d’apprentissage - Production</t>
+  </si>
+  <si>
+    <t>T - Achats matières premières - Production</t>
+  </si>
+  <si>
+    <t>T - Variation stock matière première - Production</t>
+  </si>
+  <si>
+    <t>M - Variation stock fourniture de bureau et d'entretien - Mutualisé</t>
+  </si>
+  <si>
+    <t>T - Sous-traitance technique - Production</t>
+  </si>
+  <si>
+    <t>Chiffre d’affaires - (achats matières premières + variation de stock matières + sous traitance production)</t>
+  </si>
+  <si>
+    <t>% de marge brute sur activité de production</t>
+  </si>
+  <si>
+    <t>Marge brute sur activité de production / Chiffre d'affaires</t>
+  </si>
+  <si>
+    <t>• Saisie trimestrielle : chaque trimestre, reporter les montants de la balance comptable (exemple : Si l’exercice clôture au 31/08, le T1 correspond à la période du 01/09/N au 30/11/N).</t>
+  </si>
+  <si>
+    <t>Catégorie de charge de fonctionnement</t>
   </si>
 </sst>
 </file>
@@ -2326,7 +2344,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -2352,6 +2370,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF83E28E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF83E28E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF17673"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3001,7 +3033,7 @@
   </sheetPr>
   <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3238,7 +3270,7 @@
     </row>
     <row r="61" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -3246,7 +3278,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
@@ -3254,7 +3286,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -3262,7 +3294,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -3270,7 +3302,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -3278,7 +3310,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -3286,7 +3318,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3294,7 +3326,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3335,7 @@
     </row>
     <row r="78" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3311,7 +3343,7 @@
     </row>
     <row r="80" spans="1:1" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3319,7 +3351,7 @@
     </row>
     <row r="82" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3328,7 +3360,7 @@
     </row>
     <row r="85" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3336,7 +3368,7 @@
     </row>
     <row r="87" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3344,7 +3376,7 @@
     </row>
     <row r="89" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3384,7 @@
     </row>
     <row r="91" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3360,7 +3392,7 @@
     </row>
     <row r="93" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3368,7 +3400,7 @@
     </row>
     <row r="95" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3377,7 +3409,7 @@
     </row>
     <row r="98" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3385,7 +3417,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3393,7 +3425,7 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -3401,7 +3433,7 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -3409,7 +3441,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -3417,7 +3449,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -3425,12 +3457,12 @@
     </row>
     <row r="110" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
@@ -3438,7 +3470,7 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3446,7 +3478,7 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -3454,13 +3486,13 @@
     </row>
     <row r="117" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="20" priority="33">
+    <cfRule type="expression" dxfId="22" priority="33">
       <formula>ISNA(#REF!)</formula>
     </cfRule>
     <cfRule type="expression" priority="34">
@@ -3482,17 +3514,17 @@
     <tabColor rgb="FFFCE5CD"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12.7109375" style="25" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="25" customWidth="1"/>
@@ -3503,7 +3535,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -3517,42 +3549,42 @@
     </row>
     <row r="2" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
-        <v>60611</v>
+        <v>60100</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -3560,24 +3592,24 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="19">
-        <f>D3+E3+F3+G3</f>
+        <f t="shared" ref="H3:H7" si="0">D3+E3+F3+G3</f>
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <f>H3-C3</f>
+        <f t="shared" ref="I3:I7" si="1">H3-C3</f>
         <v>0</v>
       </c>
       <c r="J3" s="20" t="str">
-        <f>IF(I3=0,"",IF(C3=0,"",I3/C3))</f>
+        <f t="shared" ref="J3:J7" si="2">IF(I3=0,"",IF(C3=0,"",I3/C3))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
-        <v>60626</v>
+        <v>60310</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -3585,24 +3617,24 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H62" si="0">D4+E4+F4+G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f t="shared" ref="I4:I77" si="1">H4-C4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="20" t="str">
-        <f t="shared" ref="J4:J74" si="2">IF(I4=0,"",IF(C4=0,"",I4/C4))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
-        <v>60630</v>
+        <v>60320</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -3624,10 +3656,10 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
-        <v>60632</v>
+        <v>60410</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3649,10 +3681,10 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
-        <v>60631</v>
+        <v>60611</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3674,10 +3706,10 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
-        <v>60640</v>
+        <v>60626</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3685,24 +3717,24 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H8:H66" si="3">D8+E8+F8+G8</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I8:I81" si="4">H8-C8</f>
         <v>0</v>
       </c>
       <c r="J8" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J8:J78" si="5">IF(I8=0,"",IF(C8=0,"",I8/C8))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
-        <v>60650</v>
+        <v>60630</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -3710,24 +3742,24 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
-        <v>60660</v>
+        <v>60632</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3735,24 +3767,24 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J10" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
-        <v>60690</v>
+        <v>60631</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3760,24 +3792,24 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
-        <v>61320</v>
+        <v>60640</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3785,24 +3817,24 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J12" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
-        <v>61340</v>
+        <v>60650</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -3810,24 +3842,24 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
-        <v>61350</v>
+        <v>60660</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3835,24 +3867,24 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
-        <v>61360</v>
+        <v>60690</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -3860,24 +3892,24 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J15" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
-        <v>61400</v>
+        <v>61320</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -3885,24 +3917,24 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J16" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
-        <v>61520</v>
+        <v>61340</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -3910,24 +3942,24 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
-        <v>61521</v>
+        <v>61350</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3935,24 +3967,24 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
-        <v>61522</v>
+        <v>61360</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -3960,24 +3992,24 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J19" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
-        <v>61600</v>
+        <v>61400</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -3985,24 +4017,24 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J20" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
-        <v>61830</v>
+        <v>61520</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -4010,24 +4042,24 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J21" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
-        <v>62110</v>
+        <v>61521</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -4035,24 +4067,24 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
-        <v>62111</v>
+        <v>61522</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -4060,24 +4092,24 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
-        <v>62112</v>
+        <v>61600</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -4085,24 +4117,24 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J24" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
-        <v>62260</v>
+        <v>61830</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -4110,24 +4142,24 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J25" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
-        <v>62261</v>
+        <v>62110</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -4135,24 +4167,24 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J26" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
-        <v>62270</v>
+        <v>62111</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -4160,24 +4192,24 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J27" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
-        <v>62310</v>
+        <v>62112</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -4185,24 +4217,24 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J28" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
-        <v>62320</v>
+        <v>62260</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -4210,24 +4242,24 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J29" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
-        <v>62340</v>
+        <v>62261</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -4235,24 +4267,24 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J30" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
-        <v>62410</v>
+        <v>62270</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -4260,24 +4292,24 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J31" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
-        <v>62510</v>
+        <v>62310</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -4285,24 +4317,24 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J32" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
-        <v>62520</v>
+        <v>62320</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -4310,24 +4342,24 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J33" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
-        <v>62550</v>
+        <v>62340</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -4335,24 +4367,24 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J34" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
-        <v>62560</v>
+        <v>62410</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -4360,24 +4392,24 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J35" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
-        <v>62610</v>
+        <v>62510</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -4385,24 +4417,24 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
-        <v>62620</v>
+        <v>62520</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -4410,24 +4442,24 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J37" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
-        <v>62640</v>
+        <v>62550</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -4435,24 +4467,24 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J38" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
-        <v>62680</v>
+        <v>62560</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -4460,24 +4492,24 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J39" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
-        <v>62710</v>
+        <v>62610</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -4485,24 +4517,24 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J40" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
-        <v>62810</v>
+        <v>62620</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -4510,24 +4542,24 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
-        <v>62830</v>
+        <v>62640</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -4535,24 +4567,24 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J42" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
-        <v>62840</v>
+        <v>62680</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -4560,24 +4592,24 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J43" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
-        <v>62850</v>
+        <v>62710</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -4585,24 +4617,24 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J44" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
-        <v>63110</v>
+        <v>62810</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -4610,24 +4642,24 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="19">
-        <f t="shared" ref="H45:H47" si="3">D45+E45+F45+G45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="19">
-        <f t="shared" ref="I45:I47" si="4">H45-C45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J45" s="20" t="str">
-        <f t="shared" ref="J45:J47" si="5">IF(I45=0,"",IF(C45=0,"",I45/C45))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
-        <v>63111</v>
+        <v>62830</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -4649,10 +4681,10 @@
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
-        <v>63112</v>
+        <v>62840</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -4674,10 +4706,10 @@
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
-        <v>63120</v>
+        <v>62850</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -4685,24 +4717,24 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J48" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
-        <v>63121</v>
+        <v>63110</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -4710,24 +4742,24 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="19">
-        <f t="shared" ref="H49" si="6">D49+E49+F49+G49</f>
+        <f t="shared" ref="H49:H51" si="6">D49+E49+F49+G49</f>
         <v>0</v>
       </c>
       <c r="I49" s="19">
-        <f t="shared" ref="I49" si="7">H49-C49</f>
+        <f t="shared" ref="I49:I51" si="7">H49-C49</f>
         <v>0</v>
       </c>
       <c r="J49" s="20" t="str">
-        <f t="shared" ref="J49" si="8">IF(I49=0,"",IF(C49=0,"",I49/C49))</f>
+        <f t="shared" ref="J49:J51" si="8">IF(I49=0,"",IF(C49=0,"",I49/C49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
-        <v>63330</v>
+        <v>63111</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -4735,24 +4767,24 @@
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="19">
-        <f t="shared" ref="H50:H52" si="9">D50+E50+F50+G50</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" ref="I50:I52" si="10">H50-C50</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J50" s="20" t="str">
-        <f t="shared" ref="J50:J52" si="11">IF(I50=0,"",IF(C50=0,"",I50/C50))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
-        <v>63331</v>
+        <v>63112</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -4760,24 +4792,24 @@
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J51" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
-        <v>63332</v>
+        <v>63120</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -4785,24 +4817,24 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J52" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
-        <v>63510</v>
+        <v>63121</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -4810,24 +4842,24 @@
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H53" si="9">D53+E53+F53+G53</f>
         <v>0</v>
       </c>
       <c r="I53" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I53" si="10">H53-C53</f>
         <v>0</v>
       </c>
       <c r="J53" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J53" si="11">IF(I53=0,"",IF(C53=0,"",I53/C53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
-        <v>64110</v>
+        <v>63330</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -4835,24 +4867,24 @@
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H54:H56" si="12">D54+E54+F54+G54</f>
         <v>0</v>
       </c>
       <c r="I54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I54:I56" si="13">H54-C54</f>
         <v>0</v>
       </c>
       <c r="J54" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J54:J56" si="14">IF(I54=0,"",IF(C54=0,"",I54/C54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
-        <v>64111</v>
+        <v>63331</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -4860,24 +4892,24 @@
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I55" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J55" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
-        <v>64112</v>
+        <v>63332</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -4885,24 +4917,24 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I56" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J56" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
-        <v>64120</v>
+        <v>63510</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -4910,24 +4942,24 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I57" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J57" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
-        <v>64121</v>
+        <v>64110</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -4935,24 +4967,24 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I58" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J58" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
-        <v>64122</v>
+        <v>64111</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -4960,24 +4992,24 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I59" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J59" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>64510</v>
+        <v>64112</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -4985,24 +5017,24 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I60" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J60" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
-        <v>64511</v>
+        <v>64120</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -5010,24 +5042,24 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I61" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J61" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
-        <v>64512</v>
+        <v>64121</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -5035,24 +5067,24 @@
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I62" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J62" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
-        <v>66110</v>
+        <v>64122</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -5060,24 +5092,24 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="19">
-        <f t="shared" ref="H63" si="12">D63+E63+F63+G63</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="19">
-        <f t="shared" ref="I63" si="13">H63-C63</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J63" s="20" t="str">
-        <f t="shared" ref="J63" si="14">IF(I63=0,"",IF(C63=0,"",I63/C63))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
-        <v>67800</v>
+        <v>64510</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -5085,62 +5117,49 @@
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="19">
-        <f t="shared" ref="H64" si="15">D64+E64+F64+G64</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I64" s="19">
-        <f t="shared" ref="I64" si="16">H64-C64</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J64" s="20" t="str">
-        <f t="shared" ref="J64" si="17">IF(I64=0,"",IF(C64=0,"",I64/C64))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="23">
-        <f>SUM(C3:C64)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="23">
-        <f t="shared" ref="D65:G65" si="18">SUM(D3:D64)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="21">
-        <f>D65+E65+F65+G65</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="21">
-        <f>H65-C65</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="22" t="str">
-        <f>IF(I65=0,"",IF(C65=0,"",I65/C65))</f>
+      <c r="A65" s="26">
+        <v>64511</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="20" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>70600</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>126</v>
+      <c r="A66" s="26">
+        <v>64512</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -5148,24 +5167,24 @@
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="19">
-        <f t="shared" ref="H66:H77" si="19">D66+E66+F66+G66</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I66" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J66" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>70601</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>127</v>
+      <c r="A67" s="26">
+        <v>66110</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -5173,24 +5192,24 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H67" si="15">D67+E67+F67+G67</f>
         <v>0</v>
       </c>
       <c r="I67" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I67" si="16">H67-C67</f>
         <v>0</v>
       </c>
       <c r="J67" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J67" si="17">IF(I67=0,"",IF(C67=0,"",I67/C67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>70602</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>128</v>
+      <c r="A68" s="26">
+        <v>67800</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -5198,49 +5217,62 @@
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="19">
-        <f>D68+E68+F68+G68</f>
+        <f t="shared" ref="H68" si="18">D68+E68+F68+G68</f>
         <v>0</v>
       </c>
       <c r="I68" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I68" si="19">H68-C68</f>
         <v>0</v>
       </c>
       <c r="J68" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J68" si="20">IF(I68=0,"",IF(C68=0,"",I68/C68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>70620</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="19">
+      <c r="A69" s="1"/>
+      <c r="B69" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="23">
+        <f>SUM(C3:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="23">
+        <f t="shared" ref="D69:G69" si="21">SUM(D3:D68)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="21">
         <f>D69+E69+F69+G69</f>
         <v>0</v>
       </c>
-      <c r="I69" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="20" t="str">
-        <f t="shared" si="2"/>
+      <c r="I69" s="21">
+        <f>H69-C69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="22" t="str">
+        <f>IF(I69=0,"",IF(C69=0,"",I69/C69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>70700</v>
+        <v>70600</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -5248,24 +5280,24 @@
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H70:H81" si="22">D70+E70+F70+G70</f>
         <v>0</v>
       </c>
       <c r="I70" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J70" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>70701</v>
+        <v>70601</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -5273,24 +5305,24 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I71" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J71" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>70702</v>
+        <v>70602</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -5298,24 +5330,24 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="19">
-        <f t="shared" si="19"/>
+        <f>D72+E72+F72+G72</f>
         <v>0</v>
       </c>
       <c r="I72" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J72" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>70720</v>
+        <v>70620</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -5323,24 +5355,24 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="19">
-        <f t="shared" si="19"/>
+        <f>D73+E73+F73+G73</f>
         <v>0</v>
       </c>
       <c r="I73" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J73" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>71331</v>
+        <v>70700</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -5348,24 +5380,24 @@
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I74" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J74" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>71335</v>
+        <v>70701</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -5373,24 +5405,24 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I75" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J75" s="20" t="str">
-        <f t="shared" ref="J75:J77" si="20">IF(I75=0,"",IF(C75=0,"",I75/C75))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>72210</v>
+        <v>70702</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -5398,24 +5430,24 @@
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I76" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J76" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>72220</v>
+        <v>70720</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -5423,142 +5455,242 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I77" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J77" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="23">
-        <f>SUM(C66:C77)</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="23">
-        <f t="shared" ref="D78:G78" si="21">SUM(D66:D77)</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="23">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="23">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="23">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="21">
-        <f>D78+E78+F78+G78</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="21">
-        <f>H78-C78</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="22" t="str">
-        <f>IF(I78=0,"",IF(C78=0,"",I78/C78))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A78" s="6">
+        <v>71331</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>71335</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="20" t="str">
+        <f t="shared" ref="J79:J81" si="23">IF(I79=0,"",IF(C79=0,"",I79/C79))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>72210</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>72220</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="23">
+        <f>SUM(C70:C81)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="23">
+        <f t="shared" ref="D82:G82" si="24">SUM(D70:D81)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="21">
+        <f>D82+E82+F82+G82</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="21">
+        <f>H82-C82</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="22" t="str">
+        <f>IF(I82=0,"",IF(C82=0,"",I82/C82))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J65">
-    <cfRule type="expression" dxfId="19" priority="1">
+  <conditionalFormatting sqref="J3:J69">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>I3&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>I3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:J78">
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>I66&lt;0</formula>
+  <conditionalFormatting sqref="J70:J82">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>I70&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
-      <formula>I66&gt;0</formula>
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>I70&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attention" error="Merci de saisir des chiffres." sqref="C66:G77 C6:G64" xr:uid="{E800FE8A-1556-4EFF-AD3A-EA042AAE08D1}">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Attention" error="Merci de saisir des chiffres." sqref="C70:G81 C10:G68" xr:uid="{E800FE8A-1556-4EFF-AD3A-EA042AAE08D1}">
       <formula1>-99999999999999</formula1>
       <formula2>99999999999999</formula2>
     </dataValidation>
@@ -5576,9 +5708,9 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5593,7 +5725,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -5605,57 +5737,57 @@
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="7">
-        <f>'📊 Données comptables'!C56+'📊 Données comptables'!C59+'📊 Données comptables'!C62+'📊 Données comptables'!C24</f>
+        <f>'📊 Données comptables'!C60+'📊 Données comptables'!C63+'📊 Données comptables'!C66+'📊 Données comptables'!C28</f>
         <v>0</v>
       </c>
       <c r="C5" s="7">
-        <f>'📊 Données comptables'!D56+'📊 Données comptables'!D59+'📊 Données comptables'!D62+'📊 Données comptables'!D24</f>
+        <f>'📊 Données comptables'!D60+'📊 Données comptables'!D63+'📊 Données comptables'!D66+'📊 Données comptables'!D28</f>
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>'📊 Données comptables'!E56+'📊 Données comptables'!E59+'📊 Données comptables'!E62+'📊 Données comptables'!E24</f>
+        <f>'📊 Données comptables'!E60+'📊 Données comptables'!E63+'📊 Données comptables'!E66+'📊 Données comptables'!E28</f>
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <f>'📊 Données comptables'!F56+'📊 Données comptables'!F59+'📊 Données comptables'!F62+'📊 Données comptables'!F24</f>
+        <f>'📊 Données comptables'!F60+'📊 Données comptables'!F63+'📊 Données comptables'!F66+'📊 Données comptables'!F28</f>
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <f>'📊 Données comptables'!G56+'📊 Données comptables'!G59+'📊 Données comptables'!G62+'📊 Données comptables'!G24</f>
+        <f>'📊 Données comptables'!G60+'📊 Données comptables'!G63+'📊 Données comptables'!G66+'📊 Données comptables'!G28</f>
         <v>0</v>
       </c>
       <c r="G5" s="7">
@@ -5663,31 +5795,31 @@
         <v>0</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="7">
-        <f>'📊 Données comptables'!C7+'📊 Données comptables'!C9+'📊 Données comptables'!C10+'📊 Données comptables'!C11+'📊 Données comptables'!C15+'📊 Données comptables'!C19</f>
+        <f>'📊 Données comptables'!C11+'📊 Données comptables'!C13+'📊 Données comptables'!C14+'📊 Données comptables'!C15+'📊 Données comptables'!C19+'📊 Données comptables'!C23</f>
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <f>'📊 Données comptables'!D7+'📊 Données comptables'!D9+'📊 Données comptables'!D10+'📊 Données comptables'!D11+'📊 Données comptables'!D15+'📊 Données comptables'!D19</f>
+        <f>'📊 Données comptables'!D11+'📊 Données comptables'!D13+'📊 Données comptables'!D14+'📊 Données comptables'!D15+'📊 Données comptables'!D19+'📊 Données comptables'!D23</f>
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <f>'📊 Données comptables'!E7+'📊 Données comptables'!E9+'📊 Données comptables'!E10+'📊 Données comptables'!E11+'📊 Données comptables'!E15+'📊 Données comptables'!E19</f>
+        <f>'📊 Données comptables'!E11+'📊 Données comptables'!E13+'📊 Données comptables'!E14+'📊 Données comptables'!E15+'📊 Données comptables'!E19+'📊 Données comptables'!E23</f>
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>'📊 Données comptables'!F7+'📊 Données comptables'!F9+'📊 Données comptables'!F10+'📊 Données comptables'!F11+'📊 Données comptables'!F15+'📊 Données comptables'!F19</f>
+        <f>'📊 Données comptables'!F11+'📊 Données comptables'!F13+'📊 Données comptables'!F14+'📊 Données comptables'!F15+'📊 Données comptables'!F19+'📊 Données comptables'!F23</f>
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f>'📊 Données comptables'!G7+'📊 Données comptables'!G9+'📊 Données comptables'!G10+'📊 Données comptables'!G11+'📊 Données comptables'!G15+'📊 Données comptables'!G19</f>
+        <f>'📊 Données comptables'!G11+'📊 Données comptables'!G13+'📊 Données comptables'!G14+'📊 Données comptables'!G15+'📊 Données comptables'!G19+'📊 Données comptables'!G23</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
@@ -5695,31 +5827,31 @@
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="7">
-        <f>'📊 Données comptables'!C49+'📊 Données comptables'!C52+'📊 Données comptables'!C47</f>
+        <f>'📊 Données comptables'!C53+'📊 Données comptables'!C56+'📊 Données comptables'!C51</f>
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <f>'📊 Données comptables'!D49+'📊 Données comptables'!D52+'📊 Données comptables'!D47</f>
+        <f>'📊 Données comptables'!D53+'📊 Données comptables'!D56+'📊 Données comptables'!D51</f>
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>'📊 Données comptables'!E49+'📊 Données comptables'!E52+'📊 Données comptables'!E47</f>
+        <f>'📊 Données comptables'!E53+'📊 Données comptables'!E56+'📊 Données comptables'!E51</f>
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <f>'📊 Données comptables'!F49+'📊 Données comptables'!F52+'📊 Données comptables'!F47</f>
+        <f>'📊 Données comptables'!F53+'📊 Données comptables'!F56+'📊 Données comptables'!F51</f>
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <f>'📊 Données comptables'!G49+'📊 Données comptables'!G52+'📊 Données comptables'!G47</f>
+        <f>'📊 Données comptables'!G53+'📊 Données comptables'!G56+'📊 Données comptables'!G51</f>
         <v>0</v>
       </c>
       <c r="G7" s="7">
@@ -5727,12 +5859,12 @@
         <v>0</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="52">
         <f>SUM(B5:B7)</f>
@@ -5762,7 +5894,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5773,26 +5905,26 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="7">
-        <f>'📊 Données comptables'!C23+'📊 Données comptables'!C55+'📊 Données comptables'!C58+'📊 Données comptables'!C61</f>
+        <f>'📊 Données comptables'!C27+'📊 Données comptables'!C59+'📊 Données comptables'!C62+'📊 Données comptables'!C65</f>
         <v>0</v>
       </c>
       <c r="C10" s="7">
-        <f>'📊 Données comptables'!D23+'📊 Données comptables'!D55+'📊 Données comptables'!D58+'📊 Données comptables'!D61</f>
+        <f>'📊 Données comptables'!D27+'📊 Données comptables'!D59+'📊 Données comptables'!D62+'📊 Données comptables'!D65</f>
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f>'📊 Données comptables'!E23+'📊 Données comptables'!E55+'📊 Données comptables'!E58+'📊 Données comptables'!E61</f>
+        <f>'📊 Données comptables'!E27+'📊 Données comptables'!E59+'📊 Données comptables'!E62+'📊 Données comptables'!E65</f>
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <f>'📊 Données comptables'!F23+'📊 Données comptables'!F55+'📊 Données comptables'!F58+'📊 Données comptables'!F61</f>
+        <f>'📊 Données comptables'!F27+'📊 Données comptables'!F59+'📊 Données comptables'!F62+'📊 Données comptables'!F65</f>
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <f>'📊 Données comptables'!G23+'📊 Données comptables'!G55+'📊 Données comptables'!G58+'📊 Données comptables'!G61</f>
+        <f>'📊 Données comptables'!G27+'📊 Données comptables'!G59+'📊 Données comptables'!G62+'📊 Données comptables'!G65</f>
         <v>0</v>
       </c>
       <c r="G10" s="7">
@@ -5800,31 +5932,31 @@
         <v>0</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B11" s="7">
-        <f>'📊 Données comptables'!C6+'📊 Données comptables'!C18+'📊 Données comptables'!C28+'📊 Données comptables'!C34+'📊 Données comptables'!C41+'📊 Données comptables'!C42+'📊 Données comptables'!C43</f>
+        <f>'📊 Données comptables'!C10+'📊 Données comptables'!C22+'📊 Données comptables'!C32+'📊 Données comptables'!C38+'📊 Données comptables'!C45+'📊 Données comptables'!C46+'📊 Données comptables'!C47</f>
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <f>'📊 Données comptables'!D6+'📊 Données comptables'!D18+'📊 Données comptables'!D28+'📊 Données comptables'!D34+'📊 Données comptables'!D41+'📊 Données comptables'!D42+'📊 Données comptables'!D43</f>
+        <f>'📊 Données comptables'!D10+'📊 Données comptables'!D22+'📊 Données comptables'!D32+'📊 Données comptables'!D38+'📊 Données comptables'!D45+'📊 Données comptables'!D46+'📊 Données comptables'!D47</f>
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <f>'📊 Données comptables'!E6+'📊 Données comptables'!E18+'📊 Données comptables'!E28+'📊 Données comptables'!E34+'📊 Données comptables'!E41+'📊 Données comptables'!E42+'📊 Données comptables'!E43</f>
+        <f>'📊 Données comptables'!E10+'📊 Données comptables'!E22+'📊 Données comptables'!E32+'📊 Données comptables'!E38+'📊 Données comptables'!E45+'📊 Données comptables'!E46+'📊 Données comptables'!E47</f>
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <f>'📊 Données comptables'!F6+'📊 Données comptables'!F18+'📊 Données comptables'!F28+'📊 Données comptables'!F34+'📊 Données comptables'!F41+'📊 Données comptables'!F42+'📊 Données comptables'!F43</f>
+        <f>'📊 Données comptables'!F10+'📊 Données comptables'!F22+'📊 Données comptables'!F32+'📊 Données comptables'!F38+'📊 Données comptables'!F45+'📊 Données comptables'!F46+'📊 Données comptables'!F47</f>
         <v>0</v>
       </c>
       <c r="F11" s="7">
-        <f>'📊 Données comptables'!G6+'📊 Données comptables'!G18+'📊 Données comptables'!G28+'📊 Données comptables'!G34+'📊 Données comptables'!G41+'📊 Données comptables'!G42+'📊 Données comptables'!G43</f>
+        <f>'📊 Données comptables'!G10+'📊 Données comptables'!G22+'📊 Données comptables'!G32+'📊 Données comptables'!G38+'📊 Données comptables'!G45+'📊 Données comptables'!G46+'📊 Données comptables'!G47</f>
         <v>0</v>
       </c>
       <c r="G11" s="7">
@@ -5832,31 +5964,31 @@
         <v>0</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="7">
-        <f>'📊 Données comptables'!C53+'📊 Données comptables'!C51+'📊 Données comptables'!C46</f>
+        <f>'📊 Données comptables'!C57+'📊 Données comptables'!C55+'📊 Données comptables'!C50</f>
         <v>0</v>
       </c>
       <c r="C12" s="7">
-        <f>'📊 Données comptables'!D53+'📊 Données comptables'!D51+'📊 Données comptables'!D46</f>
+        <f>'📊 Données comptables'!D57+'📊 Données comptables'!D55+'📊 Données comptables'!D50</f>
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <f>'📊 Données comptables'!E53+'📊 Données comptables'!E51+'📊 Données comptables'!E46</f>
+        <f>'📊 Données comptables'!E57+'📊 Données comptables'!E55+'📊 Données comptables'!E50</f>
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <f>'📊 Données comptables'!F53+'📊 Données comptables'!F51+'📊 Données comptables'!F46</f>
+        <f>'📊 Données comptables'!F57+'📊 Données comptables'!F55+'📊 Données comptables'!F50</f>
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <f>'📊 Données comptables'!G53+'📊 Données comptables'!G51+'📊 Données comptables'!G46</f>
+        <f>'📊 Données comptables'!G57+'📊 Données comptables'!G55+'📊 Données comptables'!G50</f>
         <v>0</v>
       </c>
       <c r="G12" s="7">
@@ -5864,12 +5996,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="52">
         <f t="shared" ref="B13:G13" si="1">SUM(B10:B12)</f>
@@ -5899,7 +6031,7 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5910,26 +6042,26 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="7">
-        <f>'📊 Données comptables'!C22+'📊 Données comptables'!C54+'📊 Données comptables'!C57+'📊 Données comptables'!C60</f>
+        <f>'📊 Données comptables'!C26+'📊 Données comptables'!C58+'📊 Données comptables'!C61+'📊 Données comptables'!C64</f>
         <v>0</v>
       </c>
       <c r="C15" s="7">
-        <f>'📊 Données comptables'!D22+'📊 Données comptables'!D54+'📊 Données comptables'!D57+'📊 Données comptables'!D60</f>
+        <f>'📊 Données comptables'!D26+'📊 Données comptables'!D58+'📊 Données comptables'!D61+'📊 Données comptables'!D64</f>
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f>'📊 Données comptables'!E22+'📊 Données comptables'!E54+'📊 Données comptables'!E57+'📊 Données comptables'!E60</f>
+        <f>'📊 Données comptables'!E26+'📊 Données comptables'!E58+'📊 Données comptables'!E61+'📊 Données comptables'!E64</f>
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <f>'📊 Données comptables'!F22+'📊 Données comptables'!F54+'📊 Données comptables'!F57+'📊 Données comptables'!F60</f>
+        <f>'📊 Données comptables'!F26+'📊 Données comptables'!F58+'📊 Données comptables'!F61+'📊 Données comptables'!F64</f>
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f>'📊 Données comptables'!G22+'📊 Données comptables'!G54+'📊 Données comptables'!G57+'📊 Données comptables'!G60</f>
+        <f>'📊 Données comptables'!G26+'📊 Données comptables'!G58+'📊 Données comptables'!G61+'📊 Données comptables'!G64</f>
         <v>0</v>
       </c>
       <c r="G15" s="7">
@@ -5937,31 +6069,31 @@
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="7">
-        <f>'📊 Données comptables'!C3+'📊 Données comptables'!C4+'📊 Données comptables'!C5+'📊 Données comptables'!C8+'📊 Données comptables'!C12+'📊 Données comptables'!C13+'📊 Données comptables'!C14+'📊 Données comptables'!C16+'📊 Données comptables'!C17+'📊 Données comptables'!C20+'📊 Données comptables'!C21+'📊 Données comptables'!C22+'📊 Données comptables'!C25+'📊 Données comptables'!C26+'📊 Données comptables'!C27+'📊 Données comptables'!C29+'📊 Données comptables'!C30+'📊 Données comptables'!C31+'📊 Données comptables'!C32+'📊 Données comptables'!C33+'📊 Données comptables'!C35+'📊 Données comptables'!C36+'📊 Données comptables'!C37+'📊 Données comptables'!C38+'📊 Données comptables'!C39+'📊 Données comptables'!C40+'📊 Données comptables'!C44</f>
+        <f>'📊 Données comptables'!C5+'📊 Données comptables'!C7+'📊 Données comptables'!C8+'📊 Données comptables'!C9+'📊 Données comptables'!C12+'📊 Données comptables'!C16+'📊 Données comptables'!C17+'📊 Données comptables'!C18+'📊 Données comptables'!C20+'📊 Données comptables'!C21+'📊 Données comptables'!C24+'📊 Données comptables'!C25+'📊 Données comptables'!C26+'📊 Données comptables'!C29+'📊 Données comptables'!C30+'📊 Données comptables'!C31+'📊 Données comptables'!C33+'📊 Données comptables'!C34+'📊 Données comptables'!C35+'📊 Données comptables'!C36+'📊 Données comptables'!C37+'📊 Données comptables'!C39+'📊 Données comptables'!C40+'📊 Données comptables'!C41+'📊 Données comptables'!C42+'📊 Données comptables'!C43+'📊 Données comptables'!C44+'📊 Données comptables'!C48</f>
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <f>'📊 Données comptables'!D3+'📊 Données comptables'!D4+'📊 Données comptables'!D5+'📊 Données comptables'!D8+'📊 Données comptables'!D12+'📊 Données comptables'!D13+'📊 Données comptables'!D14+'📊 Données comptables'!D16+'📊 Données comptables'!D17+'📊 Données comptables'!D20+'📊 Données comptables'!D21+'📊 Données comptables'!D22+'📊 Données comptables'!D25+'📊 Données comptables'!D26+'📊 Données comptables'!D27+'📊 Données comptables'!D29+'📊 Données comptables'!D30+'📊 Données comptables'!D31+'📊 Données comptables'!D32+'📊 Données comptables'!D33+'📊 Données comptables'!D35+'📊 Données comptables'!D36+'📊 Données comptables'!D37+'📊 Données comptables'!D38+'📊 Données comptables'!D39+'📊 Données comptables'!D40+'📊 Données comptables'!D44</f>
+        <f>'📊 Données comptables'!D5+'📊 Données comptables'!D7+'📊 Données comptables'!D8+'📊 Données comptables'!D9+'📊 Données comptables'!D12+'📊 Données comptables'!D16+'📊 Données comptables'!D17+'📊 Données comptables'!D18+'📊 Données comptables'!D20+'📊 Données comptables'!D21+'📊 Données comptables'!D24+'📊 Données comptables'!D25+'📊 Données comptables'!D26+'📊 Données comptables'!D29+'📊 Données comptables'!D30+'📊 Données comptables'!D31+'📊 Données comptables'!D33+'📊 Données comptables'!D34+'📊 Données comptables'!D35+'📊 Données comptables'!D36+'📊 Données comptables'!D37+'📊 Données comptables'!D39+'📊 Données comptables'!D40+'📊 Données comptables'!D41+'📊 Données comptables'!D42+'📊 Données comptables'!D43+'📊 Données comptables'!D44+'📊 Données comptables'!D48</f>
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>'📊 Données comptables'!E3+'📊 Données comptables'!E4+'📊 Données comptables'!E5+'📊 Données comptables'!E8+'📊 Données comptables'!E12+'📊 Données comptables'!E13+'📊 Données comptables'!E14+'📊 Données comptables'!E16+'📊 Données comptables'!E17+'📊 Données comptables'!E20+'📊 Données comptables'!E21+'📊 Données comptables'!E22+'📊 Données comptables'!E25+'📊 Données comptables'!E26+'📊 Données comptables'!E27+'📊 Données comptables'!E29+'📊 Données comptables'!E30+'📊 Données comptables'!E31+'📊 Données comptables'!E32+'📊 Données comptables'!E33+'📊 Données comptables'!E35+'📊 Données comptables'!E36+'📊 Données comptables'!E37+'📊 Données comptables'!E38+'📊 Données comptables'!E39+'📊 Données comptables'!E40+'📊 Données comptables'!E44</f>
+        <f>'📊 Données comptables'!E5+'📊 Données comptables'!E7+'📊 Données comptables'!E8+'📊 Données comptables'!E9+'📊 Données comptables'!E12+'📊 Données comptables'!E16+'📊 Données comptables'!E17+'📊 Données comptables'!E18+'📊 Données comptables'!E20+'📊 Données comptables'!E21+'📊 Données comptables'!E24+'📊 Données comptables'!E25+'📊 Données comptables'!E26+'📊 Données comptables'!E29+'📊 Données comptables'!E30+'📊 Données comptables'!E31+'📊 Données comptables'!E33+'📊 Données comptables'!E34+'📊 Données comptables'!E35+'📊 Données comptables'!E36+'📊 Données comptables'!E37+'📊 Données comptables'!E39+'📊 Données comptables'!E40+'📊 Données comptables'!E41+'📊 Données comptables'!E42+'📊 Données comptables'!E43+'📊 Données comptables'!E44+'📊 Données comptables'!E48</f>
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <f>'📊 Données comptables'!F3+'📊 Données comptables'!F4+'📊 Données comptables'!F5+'📊 Données comptables'!F8+'📊 Données comptables'!F12+'📊 Données comptables'!F13+'📊 Données comptables'!F14+'📊 Données comptables'!F16+'📊 Données comptables'!F17+'📊 Données comptables'!F20+'📊 Données comptables'!F21+'📊 Données comptables'!F22+'📊 Données comptables'!F25+'📊 Données comptables'!F26+'📊 Données comptables'!F27+'📊 Données comptables'!F29+'📊 Données comptables'!F30+'📊 Données comptables'!F31+'📊 Données comptables'!F32+'📊 Données comptables'!F33+'📊 Données comptables'!F35+'📊 Données comptables'!F36+'📊 Données comptables'!F37+'📊 Données comptables'!F38+'📊 Données comptables'!F39+'📊 Données comptables'!F40+'📊 Données comptables'!F44</f>
+        <f>'📊 Données comptables'!F5+'📊 Données comptables'!F7+'📊 Données comptables'!F8+'📊 Données comptables'!F9+'📊 Données comptables'!F12+'📊 Données comptables'!F16+'📊 Données comptables'!F17+'📊 Données comptables'!F18+'📊 Données comptables'!F20+'📊 Données comptables'!F21+'📊 Données comptables'!F24+'📊 Données comptables'!F25+'📊 Données comptables'!F26+'📊 Données comptables'!F29+'📊 Données comptables'!F30+'📊 Données comptables'!F31+'📊 Données comptables'!F33+'📊 Données comptables'!F34+'📊 Données comptables'!F35+'📊 Données comptables'!F36+'📊 Données comptables'!F37+'📊 Données comptables'!F39+'📊 Données comptables'!F40+'📊 Données comptables'!F41+'📊 Données comptables'!F42+'📊 Données comptables'!F43+'📊 Données comptables'!F44+'📊 Données comptables'!F48</f>
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f>'📊 Données comptables'!G3+'📊 Données comptables'!G4+'📊 Données comptables'!G5+'📊 Données comptables'!G8+'📊 Données comptables'!G12+'📊 Données comptables'!G13+'📊 Données comptables'!G14+'📊 Données comptables'!G16+'📊 Données comptables'!G17+'📊 Données comptables'!G20+'📊 Données comptables'!G21+'📊 Données comptables'!G22+'📊 Données comptables'!G25+'📊 Données comptables'!G26+'📊 Données comptables'!G27+'📊 Données comptables'!G29+'📊 Données comptables'!G30+'📊 Données comptables'!G31+'📊 Données comptables'!G32+'📊 Données comptables'!G33+'📊 Données comptables'!G35+'📊 Données comptables'!G36+'📊 Données comptables'!G37+'📊 Données comptables'!G38+'📊 Données comptables'!G39+'📊 Données comptables'!G40+'📊 Données comptables'!G44</f>
+        <f>'📊 Données comptables'!G5+'📊 Données comptables'!G7+'📊 Données comptables'!G8+'📊 Données comptables'!G9+'📊 Données comptables'!G12+'📊 Données comptables'!G16+'📊 Données comptables'!G17+'📊 Données comptables'!G18+'📊 Données comptables'!G20+'📊 Données comptables'!G21+'📊 Données comptables'!G24+'📊 Données comptables'!G25+'📊 Données comptables'!G26+'📊 Données comptables'!G29+'📊 Données comptables'!G30+'📊 Données comptables'!G31+'📊 Données comptables'!G33+'📊 Données comptables'!G34+'📊 Données comptables'!G35+'📊 Données comptables'!G36+'📊 Données comptables'!G37+'📊 Données comptables'!G39+'📊 Données comptables'!G40+'📊 Données comptables'!G41+'📊 Données comptables'!G42+'📊 Données comptables'!G43+'📊 Données comptables'!G44+'📊 Données comptables'!G48</f>
         <v>0</v>
       </c>
       <c r="G16" s="7">
@@ -5969,31 +6101,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" s="7">
-        <f>'📊 Données comptables'!C48+'📊 Données comptables'!C50+'📊 Données comptables'!C45</f>
+        <f>'📊 Données comptables'!C52+'📊 Données comptables'!C54+'📊 Données comptables'!C49</f>
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <f>'📊 Données comptables'!D48+'📊 Données comptables'!D50+'📊 Données comptables'!D45</f>
+        <f>'📊 Données comptables'!D52+'📊 Données comptables'!D54+'📊 Données comptables'!D49</f>
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>'📊 Données comptables'!E48+'📊 Données comptables'!E50+'📊 Données comptables'!E45</f>
+        <f>'📊 Données comptables'!E52+'📊 Données comptables'!E54+'📊 Données comptables'!E49</f>
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <f>'📊 Données comptables'!F48+'📊 Données comptables'!F50+'📊 Données comptables'!F45</f>
+        <f>'📊 Données comptables'!F52+'📊 Données comptables'!F54+'📊 Données comptables'!F49</f>
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f>'📊 Données comptables'!G48+'📊 Données comptables'!G50+'📊 Données comptables'!G45</f>
+        <f>'📊 Données comptables'!G52+'📊 Données comptables'!G54+'📊 Données comptables'!G49</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
@@ -6001,31 +6133,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" s="7">
-        <f>'📊 Données comptables'!C63+'📊 Données comptables'!C64</f>
+        <f>'📊 Données comptables'!C67+'📊 Données comptables'!C68</f>
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <f>'📊 Données comptables'!D63+'📊 Données comptables'!D64</f>
+        <f>'📊 Données comptables'!D67+'📊 Données comptables'!D68</f>
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>'📊 Données comptables'!E63+'📊 Données comptables'!E64</f>
+        <f>'📊 Données comptables'!E67+'📊 Données comptables'!E68</f>
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <f>'📊 Données comptables'!F63+'📊 Données comptables'!F64</f>
+        <f>'📊 Données comptables'!F67+'📊 Données comptables'!F68</f>
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <f>'📊 Données comptables'!G63+'📊 Données comptables'!G64</f>
+        <f>'📊 Données comptables'!G67+'📊 Données comptables'!G68</f>
         <v>0</v>
       </c>
       <c r="G18" s="7">
@@ -6033,12 +6165,12 @@
         <v>0</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="52">
         <f t="shared" ref="B19:G19" si="2">SUM(B15:B18)</f>
@@ -6075,7 +6207,7 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6094,7 +6226,7 @@
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" s="52">
         <f>B8+(B19*2/3)</f>
@@ -6121,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6135,7 +6267,7 @@
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25" s="52">
         <f t="shared" ref="B25:G25" si="4">B13+(B19*1/3)</f>
@@ -6162,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6308,7 @@
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B27" s="52">
         <f t="shared" ref="B27:G27" si="5">B23+B25</f>
@@ -6203,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6239,7 +6371,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -6247,56 +6379,56 @@
     </row>
     <row r="2" spans="1:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="7" t="str">
         <f>IF(B3=0,"",'💰 Coût total'!B23/B3)</f>
@@ -6309,7 +6441,7 @@
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6320,7 +6452,7 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>IF(B3=0,"",'💰 Coût total'!B25/B3)</f>
@@ -6333,7 +6465,7 @@
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6344,7 +6476,7 @@
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" s="7" t="str">
         <f>IF(B3=0,"",'💰 Coût total'!B27/B3)</f>
@@ -6357,7 +6489,7 @@
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6365,22 +6497,22 @@
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B22" s="52" t="str">
         <f>IF(B3=0,"",('💰 Coût total'!B23/(B3*B4*B5)))</f>
@@ -6397,7 +6529,7 @@
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6410,7 +6542,7 @@
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B25" s="52" t="str">
         <f>IF(B3=0,"",('💰 Coût total'!B25/(B3*B4*B6)))</f>
@@ -6427,7 +6559,7 @@
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6440,7 +6572,7 @@
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B28" s="52" t="str">
         <f>IF(B3=0,"",('💰 Coût total'!B27/(B3*B4*(B5+B6))))</f>
@@ -6457,7 +6589,7 @@
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6478,10 +6610,10 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="D22 D25 D28">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6502,10 +6634,10 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6520,7 +6652,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -6529,13 +6661,13 @@
     </row>
     <row r="2" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="6">
         <f>'👤 Coût élève'!B3</f>
@@ -6544,7 +6676,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="6">
         <f>'👤 Coût élève'!B4</f>
@@ -6553,7 +6685,7 @@
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="60">
         <f>'👤 Coût élève'!B5</f>
@@ -6562,7 +6694,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="60">
         <f>'👤 Coût élève'!B6</f>
@@ -6571,9 +6703,9 @@
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="6">
+        <v>183</v>
+      </c>
+      <c r="B7" s="16">
         <f>'👤 Coût élève'!B7</f>
         <v>0</v>
       </c>
@@ -6581,32 +6713,32 @@
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B11" s="14">
-        <f>'📊 Données comptables'!C78</f>
+        <f>'📊 Données comptables'!C82</f>
         <v>0</v>
       </c>
       <c r="C11" s="14">
-        <f>'📊 Données comptables'!D78+'📊 Données comptables'!E78+'📊 Données comptables'!F78+'📊 Données comptables'!G78</f>
+        <f>'📊 Données comptables'!D82+'📊 Données comptables'!E82+'📊 Données comptables'!F82+'📊 Données comptables'!G82</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
@@ -6621,7 +6753,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" s="14">
         <f>'💰 Coût total'!B6+'💰 Coût total'!B11+'💰 Coût total'!B16</f>
@@ -6643,7 +6775,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="14">
         <f>'💰 Coût total'!B5+'💰 Coût total'!B10+'💰 Coût total'!B15</f>
@@ -6670,14 +6802,14 @@
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="14">
-        <f>IF(B3=0,0,(('📊 Données comptables'!C78)/B3))</f>
+        <f>IF(B3=0,0,(('📊 Données comptables'!C82)/B3))</f>
         <v>0</v>
       </c>
       <c r="C15" s="14">
-        <f>IF(B3=0,0,(('📊 Données comptables'!D78+'📊 Données comptables'!E78+'📊 Données comptables'!F78+'📊 Données comptables'!G78)/'📌 Indicateurs de pilotage '!B3))</f>
+        <f>IF(B3=0,0,(('📊 Données comptables'!D82+'📊 Données comptables'!E82+'📊 Données comptables'!F82+'📊 Données comptables'!G82)/'📌 Indicateurs de pilotage '!B3))</f>
         <v>0</v>
       </c>
       <c r="D15" s="14">
@@ -6691,7 +6823,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -6706,7 +6838,7 @@
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" s="14">
         <f>IF(B7=0,0,('💰 Coût total'!B23/'📌 Indicateurs de pilotage '!B7))</f>
@@ -6723,7 +6855,7 @@
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -6739,14 +6871,14 @@
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B21" s="14">
         <f>B11*B7</f>
         <v>0</v>
       </c>
       <c r="C21" s="14">
-        <f>C11*B7</f>
+        <f>(C11-('📊 Données comptables'!H3+'📊 Données comptables'!H4+'📊 Données comptables'!H6))</f>
         <v>0</v>
       </c>
       <c r="D21" s="14">
@@ -6757,59 +6889,87 @@
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="14">
-        <f>B21-'💰 Coût total'!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
-        <f>C21-'💰 Coût total'!G23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="14">
+        <v>232</v>
+      </c>
+      <c r="B24" s="16">
+        <f>IF(B11=0,0,(B21/B11))</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <f>IF(C11=0,0,(C21/C11))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
         <f>C24-B24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>217</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="16">
-        <f>IF(B11=0,0,(B24/B11))</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <f>IF(C11=0,0,(C24/C11))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
+        <v>213</v>
+      </c>
+      <c r="B27" s="14">
+        <f>B21-'💰 Coût total'!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <f>C21-'💰 Coût total'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
         <f>C27-B27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="16">
+        <f>IF(B11=0,0,(B27/B11))</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <f>IF(C11=0,0,(C27/C11))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <f>C30-B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6818,59 +6978,67 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D24">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="B27:D27">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$B$27&gt;$C$27</formula>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$C$27&gt;=$B$27</formula>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>$B$30&gt;$C$30</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>$C$30&gt;=$B$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 E15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/client/public/fichiers/ANNEXE 18 - TABLEAU CALCUL DE COUT.xlsx
+++ b/client/public/fichiers/ANNEXE 18 - TABLEAU CALCUL DE COUT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://219295cocerto-my.sharepoint.com/personal/lgombaud_cocerto_fr/Documents/SAUVEGARDE LOCAL LG/MEMOIRE DEC/MEMOIRE/ANNEXE/ANNEXE 18 - TABLEAU CALCUL DE COUT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgombaud\Documents\DEF MEMOIRE\ANNEXES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{9461C862-B0F5-4249-AC05-E3EC29721622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{287B892D-E390-41C7-86DB-4AB6698879FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F53A90-4F54-4266-B680-2615922D90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{E763F31E-31DD-4C0D-91DE-0AF7FFD6452D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E763F31E-31DD-4C0D-91DE-0AF7FFD6452D}"/>
   </bookViews>
   <sheets>
     <sheet name="📘 Notice" sheetId="7" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'👤 Coût élève'!$A$1:$C$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'💰 Coût total'!$A$1:$G$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'📊 Données comptables'!$A$1:$G$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'📌 Indicateurs de pilotage '!$A$1:$C$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'📘 Notice'!$A$1:$A$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'📌 Indicateurs de pilotage '!$A$1:$C$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'📘 Notice'!$A$1:$A$115</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="235">
   <si>
     <t>NOTICE</t>
   </si>
@@ -145,7 +145,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">L’activation des </t>
+      <t xml:space="preserve">Les cases de </t>
     </r>
     <r>
       <rPr>
@@ -155,21 +155,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>macros</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> est nécessaire au bon fonctionnement de l’outil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les cases de </t>
+      <t>couleurs jaune clair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sont les seules à devoir être complétées, le reste du tableau est </t>
     </r>
     <r>
       <rPr>
@@ -179,16 +174,21 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>couleurs jaune clair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sont les seules à devoir être complétées, le reste du tableau est </t>
+      <t>automatisé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le fichier est </t>
     </r>
     <r>
       <rPr>
@@ -198,7 +198,269 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>automatisé</t>
+      <t>protégé sans mot de passe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Il peut être adapté à d’autres projets en personnalisant les intitulés ou les hypothèses. Il est conseillé de dupliquer l’original avant toute modification</t>
+    </r>
+  </si>
+  <si>
+    <t>🎯 Objectif de l’annexe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L’Annexe 18 est un outil de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>calcul automatisé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> conçu pour exploiter les données issues du </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>plan comptable adapté</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (cf. Annexe 4) et fournir une analyse détaillée des coûts de l’école de production.</t>
+    </r>
+  </si>
+  <si>
+    <t>Elle permet de :</t>
+  </si>
+  <si>
+    <r>
+      <t>• Importer et consolider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> les données comptables filtrées depuis le plan comptable adapté, en intégrant uniquement les comptes de charges (classe 6) et de produits (classe 7) pertinents.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• Traiter automatiquement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> la ventilation des charges et produits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>déjà sectorisés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dans le plan comptable adapté entre :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">▫ secteur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Production (T)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : activités génératrices de recettes soumises à TVA,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">▫ secteur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pédagogie (NT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : activités de formation exonérées,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">▫ secteur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mutualisé (M)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : charges communes à répartir.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• Calculer le coût total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> par secteur, avec distinction claire entre activité de production et activité pédagogique, en intégrant charges directes et clé de répartition appliquée aux charges mutualisées.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• Établir le coût moyen par élève</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, basé sur les effectifs et hypothèses saisies, pour disposer d’un indicateur de suivi et de comparaison.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• Produire des indicateurs de pilotage synthétiques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, exploitables pour :</t>
+    </r>
+  </si>
+  <si>
+    <t>▫ analyser l’évolution des coûts,</t>
+  </si>
+  <si>
+    <t>▫ justifier l’utilisation des ressources,</t>
+  </si>
+  <si>
+    <t>▫ appuyer les échanges avec financeurs et partenaires.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">💡 Cet outil assure une </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>exploitation fiable et standardisée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> des données comptables, garantissant la cohérence avec la structure définie dans l’Annexe 4 et facilitant la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>prise de décision stratégique</t>
     </r>
     <r>
       <rPr>
@@ -211,8 +473,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Le fichier est </t>
+    <t>🧱 Construction de l’outil</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L’Annexe 18 est composée de </t>
     </r>
     <r>
       <rPr>
@@ -222,24 +487,21 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>protégé sans mot de passe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Il peut être adapté à d’autres projets en personnalisant les intitulés ou les hypothèses. Il est conseillé de dupliquer l’original avant toute modification</t>
-    </r>
-  </si>
-  <si>
-    <t>🎯 Objectif de l’annexe</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L’Annexe 18 est un outil de </t>
+      <t>quatre onglets principaux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Permet de saisir ou d’importer les données issues de la comptabilité, selon la nomenclature du </t>
     </r>
     <r>
       <rPr>
@@ -249,16 +511,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>calcul automatisé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> conçu pour exploiter les données issues du </t>
+      <t>plan comptable adapté</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Annexe 4).</t>
+    </r>
+  </si>
+  <si>
+    <t>• Budget Année N : à compléter une seule fois en début d’exercice.</t>
+  </si>
+  <si>
+    <t>• Saisie trimestrielle : chaque trimestre, reporter les montants de la balance comptable (exemple : Si l’exercice clôture au 31/08, le T1 correspond à la période du 01/09/N au 30/11/N).</t>
+  </si>
+  <si>
+    <r>
+      <t>Les comptes sont automatiquement classés par secteur d’activité (</t>
     </r>
     <r>
       <rPr>
@@ -268,47 +541,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>plan comptable adapté</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (cf. Annexe 4) et fournir une analyse détaillée des coûts de l’école de production.</t>
-    </r>
-  </si>
-  <si>
-    <t>Elle permet de :</t>
-  </si>
-  <si>
-    <r>
-      <t>• Importer et consolider</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> les données comptables filtrées depuis le plan comptable adapté, en intégrant uniquement les comptes de charges (classe 6) et de produits (classe 7) pertinents.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• Traiter automatiquement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> la ventilation des charges et produits </t>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -318,21 +560,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>déjà sectorisés</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> dans le plan comptable adapté entre :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">▫ secteur </t>
+      <t>NT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -342,154 +579,233 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Production (T)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : activités génératrices de recettes soumises à TVA,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">▫ secteur </t>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) selon leur codification.</t>
+    </r>
+  </si>
+  <si>
+    <t>Suivi et indicateurs :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• La colonne </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pédagogie (NT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : activités de formation exonérées,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">▫ secteur </t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Réel cumulé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> agrège automatiquement les montants saisis trimestre par trimestre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Les colonnes </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mutualisé (M)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : charges communes à répartir.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• Calculer le coût total</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> par secteur, avec distinction claire entre activité de production et activité pédagogique, en intégrant charges directes et clé de répartition appliquée aux charges mutualisées.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• Établir le coût moyen par élève</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>, basé sur les effectifs et hypothèses saisies, pour disposer d’un indicateur de suivi et de comparaison.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• Produire des indicateurs de pilotage synthétiques</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, exploitables pour :</t>
-    </r>
-  </si>
-  <si>
-    <t>▫ analyser l’évolution des coûts,</t>
-  </si>
-  <si>
-    <t>▫ justifier l’utilisation des ressources,</t>
-  </si>
-  <si>
-    <t>▫ appuyer les échanges avec financeurs et partenaires.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">💡 Cet outil assure une </t>
+      <t>Écart (€)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>exploitation fiable et standardisée</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> des données comptables, garantissant la cohérence avec la structure définie dans l’Annexe 4 et facilitant la </t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Écart (%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permettent de mesurer l’avancement de chaque ligne par rapport au budget annuel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Un </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>prise de décision stratégique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>code couleur automatique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> signale visuellement les écarts :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">▫ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour un dépassement de prévisions de produits.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">▫ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rouge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour un dépassement de budget sur les charges.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cet onglet agrège l’ensemble des données par secteur — </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Production, Pédagogie et Mutualisé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> — afin de calculer automatiquement les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>charges directes de production</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>charges directes pédagogiques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>charges mutualisées</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -497,100 +813,94 @@
     </r>
   </si>
   <si>
-    <t>🧱 Construction de l’outil</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L’Annexe 18 est composée de </t>
+    <r>
+      <t xml:space="preserve">Ces dernières sont ventilées de façon automatique selon une </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>quatre onglets principaux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Permet de saisir ou d’importer les données issues de la comptabilité, selon la nomenclature du </t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>clé de répartition prédéfinie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>plan comptable adapté</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Annexe 4).</t>
-    </r>
-  </si>
-  <si>
-    <t>• Budget Année N : à compléter une seule fois en début d’exercice.</t>
-  </si>
-  <si>
-    <r>
-      <t>Les comptes sont automatiquement classés par secteur d’activité (</t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/3 pour l’activité de production et 1/3 pour l’activité pédagogique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, cette proportion étant fondée sur le temps passé et l’utilisation effective des ressources dans chaque secteur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le tableau fournit également une </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>synthèse claire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permettant d’identifier le poids relatif de chaque secteur dans le </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>budget global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et de visualiser leur évolution dans le temps.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L’onglet « Coût élève » présente un récapitulatif automatique des </t>
     </r>
     <r>
       <rPr>
@@ -600,24 +910,21 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) selon leur codification.</t>
-    </r>
-  </si>
-  <si>
-    <t>Suivi et indicateurs :</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• La colonne </t>
+      <t>coûts d'un élève par secteur d’activité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il convient au préalable de compléter les </t>
     </r>
     <r>
       <rPr>
@@ -627,7 +934,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Réel cumulé</t>
+      <t>hypothèses clés retenues</t>
     </r>
     <r>
       <rPr>
@@ -636,12 +943,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> agrège automatiquement les montants saisis trimestre par trimestre.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Les colonnes </t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Les données sont déclinées en :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
     </r>
     <r>
       <rPr>
@@ -651,12 +961,185 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Écart (€)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+      <t>Coût total par élève</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour la production, la pédagogie et l’ensemble de l’école.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Coût horaire par élève</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, calculé selon le volume horaire consacré à chaque secteur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ces indicateurs sont affichés en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Budget Annuel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Réel Cumulé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, avec un suivi des écarts entre ces deux données pour le coût horaire (Seule donnée comparable si les 4 trimestres ne sont pas complétées)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cet onglet regroupe automatiquement les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>indicateurs clés de performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de l’école, calculés à partir des données saisies dans les onglets précédents.</t>
+    </r>
+  </si>
+  <si>
+    <t>Il présente notamment :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>chiffre d’affaires total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>chiffre d’affaires par élève</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>charges externes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -666,49 +1149,159 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Écart (%)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> permettent de mesurer l’avancement de chaque ligne par rapport au budget annuel.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Un </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>charges de personnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> totales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Le </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>code couleur automatique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> signale visuellement les écarts :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">▫ </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>seuil de rentabilité de l’activité de production</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, exprimé en euros de chiffre d’affaires à atteindre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• La </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>marge brute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>marge nette</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sur l’activité de production, ainsi que leur pourcentage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les données sont affichées en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Budget Annuel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Réel Cumulé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, avec calcul automatique des écarts en valeur et en pourcentage d’avancement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>code couleur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> facilite la lecture :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
     </r>
     <r>
       <rPr>
@@ -722,16 +1315,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour un dépassement de prévisions de produits.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">▫ </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : performance ou économie favorable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
     </r>
     <r>
       <rPr>
@@ -745,611 +1338,21 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour un dépassement de budget sur les charges.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cet onglet agrège l’ensemble des données par secteur — </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : écart négatif ou dépassement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cet onglet permet ainsi de </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Production, Pédagogie et Mutualisé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> — afin de calculer automatiquement les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>charges directes de production</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>charges directes pédagogiques</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>charges mutualisées</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ces dernières sont ventilées de façon automatique selon une </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>clé de répartition prédéfinie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2/3 pour l’activité de production et 1/3 pour l’activité pédagogique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, cette proportion étant fondée sur le temps passé et l’utilisation effective des ressources dans chaque secteur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le tableau fournit également une </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>synthèse claire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> permettant d’identifier le poids relatif de chaque secteur dans le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>budget global</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et de visualiser leur évolution dans le temps.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L’onglet « Coût élève » présente un récapitulatif automatique des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>coûts d'un élève par secteur d’activité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Les données sont déclinées en :</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Coût total par élève</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour la production, la pédagogie et l’ensemble de l’école.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Coût horaire par élève</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, calculé selon le volume horaire consacré à chaque secteur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ces indicateurs sont affichés en</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Budget Annuel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Réel Cumulé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, avec un suivi des écarts entre ces deux données pour le coût horaire (Seule donnée comparable si les 4 trimestres ne sont pas complétées)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cet onglet regroupe automatiquement les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>indicateurs clés de performance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de l’école, calculés à partir des données saisies dans les onglets précédents.</t>
-    </r>
-  </si>
-  <si>
-    <t>Il présente notamment :</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>chiffre d’affaires total</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>chiffre d’affaires par élève</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>charges externes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>charges de personnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> totales.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• Le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>seuil de rentabilité de l’activité de production</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, exprimé en euros de chiffre d’affaires à atteindre.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• La </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>marge brute</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>marge nette</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sur l’activité de production, ainsi que leur pourcentage.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les données sont affichées en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Budget Annuel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Réel Cumulé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, avec calcul automatique des écarts en valeur et en pourcentage d’avancement.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>code couleur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> facilite la lecture :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : performance ou économie favorable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rouge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : écart négatif ou dépassement.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cet onglet permet ainsi de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1367,7 +1370,7 @@
     </r>
   </si>
   <si>
-    <t>Données comptables</t>
+    <t>DONNEES COMPTABLES</t>
   </si>
   <si>
     <t>Compte</t>
@@ -1400,6 +1403,18 @@
     <t>Écart (%)</t>
   </si>
   <si>
+    <t>T - Achats matières premières - Production</t>
+  </si>
+  <si>
+    <t>T - Variation stock matière première - Production</t>
+  </si>
+  <si>
+    <t>M - Variation stock fourniture de bureau et d'entretien - Mutualisé</t>
+  </si>
+  <si>
+    <t>T - Sous-traitance technique - Production</t>
+  </si>
+  <si>
     <t>M - Électricité</t>
   </si>
   <si>
@@ -1526,9 +1541,21 @@
     <t>M - Cotisations syndicales et autres</t>
   </si>
   <si>
+    <t>M - Taxe sur les salaires - Mutualisé</t>
+  </si>
+  <si>
+    <t>NT - Taxe sur les salaires - Pédagogique</t>
+  </si>
+  <si>
+    <t>T - Taxe sur les salaires - Production</t>
+  </si>
+  <si>
     <t>M - Taxe d’apprentissage - Mutualisé</t>
   </si>
   <si>
+    <t>T - Taxe d’apprentissage - Production</t>
+  </si>
+  <si>
     <t>M - Formation continue - Mutualisé</t>
   </si>
   <si>
@@ -1616,7 +1643,10 @@
     <t>Produits d'exploitation cumulés</t>
   </si>
   <si>
-    <t>Calcul du coût total</t>
+    <t>CALCUL DU COUT TOTAL</t>
+  </si>
+  <si>
+    <t>Catégorie de charge de fonctionnement</t>
   </si>
   <si>
     <t>Budget Annuel (€)</t>
@@ -1733,25 +1763,25 @@
     <t>Calcul : Coût total production + Coût total pédagogie</t>
   </si>
   <si>
-    <t>Calcul du coût élève</t>
+    <t>CALCUL DU COUT ELEVE</t>
   </si>
   <si>
     <t>Hypothèses clés retenues</t>
   </si>
   <si>
-    <t>Nombre d'élèves total</t>
-  </si>
-  <si>
-    <t>Nombre de semaines d'enseignement/production par an</t>
-  </si>
-  <si>
-    <t>Nombre d'heures élève/semaine en atelier</t>
-  </si>
-  <si>
-    <t>Nombre d'heures élève/semaine en matières générales</t>
-  </si>
-  <si>
-    <t>Taux de marge brute théorique sur production</t>
+    <t>Nombre d'élèves total (Ex : 28)</t>
+  </si>
+  <si>
+    <t>Nombre de semaines d'enseignement/production par an (Ex : 42)</t>
+  </si>
+  <si>
+    <t>Nombre d'heures élève/semaine en atelier (Ex : 24)</t>
+  </si>
+  <si>
+    <t>Nombre d'heures élève/semaine en matières générales (Ex : 11)</t>
+  </si>
+  <si>
+    <t>Taux de marge brute théorique sur production (Ex : 60%)</t>
   </si>
   <si>
     <t>Coût global élève</t>
@@ -1806,7 +1836,22 @@
     <t>Calcul : Coût Total École/(Nombre d'élèves*Nb semaines*(Nb heures atelier+Nb heures matières générales))</t>
   </si>
   <si>
-    <t>Indicateurs de pilotage</t>
+    <t>INDICATEURS DE PILOTAGE</t>
+  </si>
+  <si>
+    <t>Nombre d'élèves total</t>
+  </si>
+  <si>
+    <t>Nombre de semaines d'enseignement/production par an</t>
+  </si>
+  <si>
+    <t>Nombre d'heures élève/semaine en atelier</t>
+  </si>
+  <si>
+    <t>Nombre d'heures élève/semaine en matières générales</t>
+  </si>
+  <si>
+    <t>Taux de marge brute théorique sur production</t>
   </si>
   <si>
     <t>Indicateurs</t>
@@ -1849,12 +1894,18 @@
     <t>Seuil de rentabilité de l'activité production</t>
   </si>
   <si>
-    <t>Charges prod. / Taux de marge de production</t>
-  </si>
-  <si>
     <t>Marge brute sur activité de production</t>
   </si>
   <si>
+    <t>Chiffre d’affaires - (achats matières premières + variation de stock matières + sous traitance production)</t>
+  </si>
+  <si>
+    <t>% de marge brute sur activité de production</t>
+  </si>
+  <si>
+    <t>Marge brute sur activité de production / Chiffre d'affaires</t>
+  </si>
+  <si>
     <t>Marge nette sur activité de production</t>
   </si>
   <si>
@@ -1867,82 +1918,7 @@
     <t>Marge nette sur activité de production / Chiffre d'affaires</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Il convient au préalable de compléter les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>hypothèses clés retenues</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre d'élèves total (Ex : 28)</t>
-  </si>
-  <si>
-    <t>Nombre de semaines d'enseignement/production par an (Ex : 42)</t>
-  </si>
-  <si>
-    <t>Nombre d'heures élève/semaine en atelier (Ex : 24)</t>
-  </si>
-  <si>
-    <t>Nombre d'heures élève/semaine en matières générales (Ex : 11)</t>
-  </si>
-  <si>
-    <t>Taux de marge brute théorique sur production (Ex : 60%)</t>
-  </si>
-  <si>
-    <t>M - Taxe sur les salaires - Mutualisé</t>
-  </si>
-  <si>
-    <t>NT - Taxe sur les salaires - Pédagogique</t>
-  </si>
-  <si>
-    <t>T - Taxe sur les salaires - Production</t>
-  </si>
-  <si>
-    <t>T - Taxe d’apprentissage - Production</t>
-  </si>
-  <si>
-    <t>T - Achats matières premières - Production</t>
-  </si>
-  <si>
-    <t>T - Variation stock matière première - Production</t>
-  </si>
-  <si>
-    <t>M - Variation stock fourniture de bureau et d'entretien - Mutualisé</t>
-  </si>
-  <si>
-    <t>T - Sous-traitance technique - Production</t>
-  </si>
-  <si>
-    <t>Chiffre d’affaires - (achats matières premières + variation de stock matières + sous traitance production)</t>
-  </si>
-  <si>
-    <t>% de marge brute sur activité de production</t>
-  </si>
-  <si>
-    <t>Marge brute sur activité de production / Chiffre d'affaires</t>
-  </si>
-  <si>
-    <t>• Saisie trimestrielle : chaque trimestre, reporter les montants de la balance comptable (exemple : Si l’exercice clôture au 31/08, le T1 correspond à la période du 01/09/N au 30/11/N).</t>
-  </si>
-  <si>
-    <t>Catégorie de charge de fonctionnement</t>
+    <t>Coût total de l'activité de production / Taux de marge de production</t>
   </si>
 </sst>
 </file>
@@ -2535,13 +2511,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1981427</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>9558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2579,13 +2555,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1286005</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>190532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2623,13 +2599,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1305058</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>181006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2667,13 +2643,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2076689</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>190531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3031,9 +3007,9 @@
     <tabColor rgb="FFC9D7F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3095,68 +3071,68 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="48"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-    </row>
-    <row r="19" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A18" s="33"/>
+    </row>
+    <row r="19" spans="1:1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
     </row>
-    <row r="21" spans="1:1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-    </row>
-    <row r="23" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+    </row>
+    <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-    </row>
-    <row r="27" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="35"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="38"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
@@ -3172,39 +3148,39 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A34" s="35"/>
+    </row>
+    <row r="35" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="37"/>
     </row>
     <row r="37" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-    </row>
-    <row r="39" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="A38" s="40"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="35"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="38"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
@@ -3219,48 +3195,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+    </row>
+    <row r="49" spans="1:1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-    </row>
-    <row r="51" spans="1:1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="50" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+    </row>
+    <row r="51" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-    </row>
-    <row r="53" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+    <row r="52" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="41"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+    </row>
+    <row r="59" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>28</v>
       </c>
@@ -3268,33 +3244,33 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
     </row>
-    <row r="61" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
-        <v>234</v>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="41"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
-        <v>30</v>
+      <c r="A65" s="42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="42"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -3302,65 +3278,65 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-    </row>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-    </row>
-    <row r="78" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+    </row>
+    <row r="76" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+    </row>
+    <row r="78" spans="1:1" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
     </row>
-    <row r="80" spans="1:1" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-    </row>
-    <row r="82" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+    </row>
+    <row r="83" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="84" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
+      <c r="A84" s="36"/>
     </row>
     <row r="85" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3368,7 +3344,7 @@
     </row>
     <row r="87" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,48 +3352,48 @@
     </row>
     <row r="89" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
+      <c r="A90" s="39"/>
     </row>
     <row r="91" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>41</v>
+      <c r="A91" s="36" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
     </row>
-    <row r="93" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-    </row>
-    <row r="95" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+    </row>
+    <row r="96" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="97" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
     </row>
-    <row r="98" spans="1:1" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3425,7 +3401,7 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -3433,7 +3409,7 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -3441,57 +3417,49 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="37"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-    </row>
-    <row r="110" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="37" t="s">
-        <v>50</v>
-      </c>
+      <c r="A109" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="37"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="37"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="37"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-    </row>
-    <row r="117" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A15">
     <cfRule type="expression" dxfId="22" priority="33">
       <formula>ISNA(#REF!)</formula>
     </cfRule>
@@ -3502,7 +3470,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="16383" man="1"/>
+    <brk id="48" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3518,7 +3486,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69:G69"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,7 +3503,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -3549,34 +3517,34 @@
     </row>
     <row r="2" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3584,7 +3552,7 @@
         <v>60100</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -3609,7 +3577,7 @@
         <v>60310</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -3634,7 +3602,7 @@
         <v>60320</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -3659,7 +3627,7 @@
         <v>60410</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3684,7 +3652,7 @@
         <v>60611</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3709,7 +3677,7 @@
         <v>60626</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3734,7 +3702,7 @@
         <v>60630</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -3759,7 +3727,7 @@
         <v>60632</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3784,7 +3752,7 @@
         <v>60631</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3809,7 +3777,7 @@
         <v>60640</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3834,7 +3802,7 @@
         <v>60650</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -3859,7 +3827,7 @@
         <v>60660</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3884,7 +3852,7 @@
         <v>60690</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -3909,7 +3877,7 @@
         <v>61320</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -3934,7 +3902,7 @@
         <v>61340</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -3959,7 +3927,7 @@
         <v>61350</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3984,7 +3952,7 @@
         <v>61360</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -4009,7 +3977,7 @@
         <v>61400</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -4034,7 +4002,7 @@
         <v>61520</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -4059,7 +4027,7 @@
         <v>61521</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -4084,7 +4052,7 @@
         <v>61522</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -4109,7 +4077,7 @@
         <v>61600</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -4134,7 +4102,7 @@
         <v>61830</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -4159,7 +4127,7 @@
         <v>62110</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -4184,7 +4152,7 @@
         <v>62111</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -4209,7 +4177,7 @@
         <v>62112</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -4234,7 +4202,7 @@
         <v>62260</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -4259,7 +4227,7 @@
         <v>62261</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -4284,7 +4252,7 @@
         <v>62270</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -4309,7 +4277,7 @@
         <v>62310</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -4334,7 +4302,7 @@
         <v>62320</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -4359,7 +4327,7 @@
         <v>62340</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -4384,7 +4352,7 @@
         <v>62410</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -4409,7 +4377,7 @@
         <v>62510</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -4434,7 +4402,7 @@
         <v>62520</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -4459,7 +4427,7 @@
         <v>62550</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -4484,7 +4452,7 @@
         <v>62560</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -4509,7 +4477,7 @@
         <v>62610</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -4534,7 +4502,7 @@
         <v>62620</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -4559,7 +4527,7 @@
         <v>62640</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -4584,7 +4552,7 @@
         <v>62680</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -4609,7 +4577,7 @@
         <v>62710</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -4634,7 +4602,7 @@
         <v>62810</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -4659,7 +4627,7 @@
         <v>62830</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -4684,7 +4652,7 @@
         <v>62840</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -4709,7 +4677,7 @@
         <v>62850</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -4734,7 +4702,7 @@
         <v>63110</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -4759,7 +4727,7 @@
         <v>63111</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -4784,7 +4752,7 @@
         <v>63112</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -4809,7 +4777,7 @@
         <v>63120</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -4834,7 +4802,7 @@
         <v>63121</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -4859,7 +4827,7 @@
         <v>63330</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -4884,7 +4852,7 @@
         <v>63331</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -4909,7 +4877,7 @@
         <v>63332</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -4934,7 +4902,7 @@
         <v>63510</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -4959,7 +4927,7 @@
         <v>64110</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -4984,7 +4952,7 @@
         <v>64111</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -5009,7 +4977,7 @@
         <v>64112</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -5034,7 +5002,7 @@
         <v>64120</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -5059,7 +5027,7 @@
         <v>64121</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -5084,7 +5052,7 @@
         <v>64122</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -5109,7 +5077,7 @@
         <v>64510</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -5134,7 +5102,7 @@
         <v>64511</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -5159,7 +5127,7 @@
         <v>64512</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -5184,7 +5152,7 @@
         <v>66110</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -5209,7 +5177,7 @@
         <v>67800</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -5232,7 +5200,7 @@
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C69" s="23">
         <f>SUM(C3:C68)</f>
@@ -5272,7 +5240,7 @@
         <v>70600</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -5297,7 +5265,7 @@
         <v>70601</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -5322,7 +5290,7 @@
         <v>70602</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -5347,7 +5315,7 @@
         <v>70620</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -5372,7 +5340,7 @@
         <v>70700</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -5397,7 +5365,7 @@
         <v>70701</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -5422,7 +5390,7 @@
         <v>70702</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -5447,7 +5415,7 @@
         <v>70720</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -5472,7 +5440,7 @@
         <v>71331</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -5497,7 +5465,7 @@
         <v>71335</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -5522,7 +5490,7 @@
         <v>72210</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -5547,7 +5515,7 @@
         <v>72220</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -5570,7 +5538,7 @@
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="27" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C82" s="23">
         <f>SUM(C70:C81)</f>
@@ -5708,9 +5676,9 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5725,7 +5693,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -5737,38 +5705,38 @@
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B5" s="7">
         <f>'📊 Données comptables'!C60+'📊 Données comptables'!C63+'📊 Données comptables'!C66+'📊 Données comptables'!C28</f>
@@ -5795,12 +5763,12 @@
         <v>0</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B6" s="7">
         <f>'📊 Données comptables'!C11+'📊 Données comptables'!C13+'📊 Données comptables'!C14+'📊 Données comptables'!C15+'📊 Données comptables'!C19+'📊 Données comptables'!C23</f>
@@ -5827,12 +5795,12 @@
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B7" s="7">
         <f>'📊 Données comptables'!C53+'📊 Données comptables'!C56+'📊 Données comptables'!C51</f>
@@ -5859,12 +5827,12 @@
         <v>0</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B8" s="52">
         <f>SUM(B5:B7)</f>
@@ -5894,7 +5862,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5905,7 +5873,7 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B10" s="7">
         <f>'📊 Données comptables'!C27+'📊 Données comptables'!C59+'📊 Données comptables'!C62+'📊 Données comptables'!C65</f>
@@ -5932,12 +5900,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B11" s="7">
         <f>'📊 Données comptables'!C10+'📊 Données comptables'!C22+'📊 Données comptables'!C32+'📊 Données comptables'!C38+'📊 Données comptables'!C45+'📊 Données comptables'!C46+'📊 Données comptables'!C47</f>
@@ -5964,12 +5932,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B12" s="7">
         <f>'📊 Données comptables'!C57+'📊 Données comptables'!C55+'📊 Données comptables'!C50</f>
@@ -5996,12 +5964,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" s="52">
         <f t="shared" ref="B13:G13" si="1">SUM(B10:B12)</f>
@@ -6031,7 +5999,7 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -6042,7 +6010,7 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B15" s="7">
         <f>'📊 Données comptables'!C26+'📊 Données comptables'!C58+'📊 Données comptables'!C61+'📊 Données comptables'!C64</f>
@@ -6069,12 +6037,12 @@
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B16" s="7">
         <f>'📊 Données comptables'!C5+'📊 Données comptables'!C7+'📊 Données comptables'!C8+'📊 Données comptables'!C9+'📊 Données comptables'!C12+'📊 Données comptables'!C16+'📊 Données comptables'!C17+'📊 Données comptables'!C18+'📊 Données comptables'!C20+'📊 Données comptables'!C21+'📊 Données comptables'!C24+'📊 Données comptables'!C25+'📊 Données comptables'!C26+'📊 Données comptables'!C29+'📊 Données comptables'!C30+'📊 Données comptables'!C31+'📊 Données comptables'!C33+'📊 Données comptables'!C34+'📊 Données comptables'!C35+'📊 Données comptables'!C36+'📊 Données comptables'!C37+'📊 Données comptables'!C39+'📊 Données comptables'!C40+'📊 Données comptables'!C41+'📊 Données comptables'!C42+'📊 Données comptables'!C43+'📊 Données comptables'!C44+'📊 Données comptables'!C48</f>
@@ -6101,12 +6069,12 @@
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B17" s="7">
         <f>'📊 Données comptables'!C52+'📊 Données comptables'!C54+'📊 Données comptables'!C49</f>
@@ -6133,12 +6101,12 @@
         <v>0</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B18" s="7">
         <f>'📊 Données comptables'!C67+'📊 Données comptables'!C68</f>
@@ -6165,12 +6133,12 @@
         <v>0</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B19" s="52">
         <f t="shared" ref="B19:G19" si="2">SUM(B15:B18)</f>
@@ -6207,7 +6175,7 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6226,7 +6194,7 @@
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B23" s="52">
         <f>B8+(B19*2/3)</f>
@@ -6253,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6267,7 +6235,7 @@
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B25" s="52">
         <f t="shared" ref="B25:G25" si="4">B13+(B19*1/3)</f>
@@ -6294,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6308,7 +6276,7 @@
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B27" s="52">
         <f t="shared" ref="B27:G27" si="5">B23+B25</f>
@@ -6335,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6371,7 +6339,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -6379,56 +6347,56 @@
     </row>
     <row r="2" spans="1:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B11" s="7" t="str">
         <f>IF(B3=0,"",'💰 Coût total'!B23/B3)</f>
@@ -6441,7 +6409,7 @@
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6452,7 +6420,7 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>IF(B3=0,"",'💰 Coût total'!B25/B3)</f>
@@ -6465,7 +6433,7 @@
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6476,7 +6444,7 @@
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B17" s="7" t="str">
         <f>IF(B3=0,"",'💰 Coût total'!B27/B3)</f>
@@ -6489,7 +6457,7 @@
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6497,22 +6465,22 @@
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B22" s="52" t="str">
         <f>IF(B3=0,"",('💰 Coût total'!B23/(B3*B4*B5)))</f>
@@ -6529,7 +6497,7 @@
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6542,7 +6510,7 @@
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B25" s="52" t="str">
         <f>IF(B3=0,"",('💰 Coût total'!B25/(B3*B4*B6)))</f>
@@ -6559,7 +6527,7 @@
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6572,7 +6540,7 @@
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B28" s="52" t="str">
         <f>IF(B3=0,"",('💰 Coût total'!B27/(B3*B4*(B5+B6))))</f>
@@ -6589,7 +6557,7 @@
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6634,10 +6602,10 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6652,7 +6620,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -6661,13 +6629,13 @@
     </row>
     <row r="2" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B3" s="6">
         <f>'👤 Coût élève'!B3</f>
@@ -6676,7 +6644,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B4" s="6">
         <f>'👤 Coût élève'!B4</f>
@@ -6685,7 +6653,7 @@
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B5" s="60">
         <f>'👤 Coût élève'!B5</f>
@@ -6694,7 +6662,7 @@
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B6" s="60">
         <f>'👤 Coût élève'!B6</f>
@@ -6703,7 +6671,7 @@
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="B7" s="16">
         <f>'👤 Coût élève'!B7</f>
@@ -6713,25 +6681,24 @@
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B11" s="14">
         <f>'📊 Données comptables'!C82</f>
@@ -6751,9 +6718,9 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B12" s="14">
         <f>'💰 Coût total'!B6+'💰 Coût total'!B11+'💰 Coût total'!B16</f>
@@ -6768,14 +6735,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="str">
-        <f t="shared" ref="E12:E13" si="0">IF(B12=0,"",(C12/B12))</f>
+        <f t="shared" ref="E12:E15" si="0">IF(B12=0,"",(C12/B12))</f>
         <v/>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B13" s="14">
         <f>'💰 Coût total'!B5+'💰 Coût total'!B10+'💰 Coût total'!B15</f>
@@ -6795,181 +6762,225 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="14">
+        <f>'💰 Coût total'!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <f>'💰 Coût total'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" ref="D14:D15" si="1">C14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>IF(B14=0,"",(C14/B14))</f>
+        <v/>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B15" s="14">
-        <f>IF(B3=0,0,(('📊 Données comptables'!C82)/B3))</f>
+        <f>'💰 Coût total'!B25</f>
         <v>0</v>
       </c>
       <c r="C15" s="14">
-        <f>IF(B3=0,0,(('📊 Données comptables'!D82+'📊 Données comptables'!E82+'📊 Données comptables'!F82+'📊 Données comptables'!G82)/'📌 Indicateurs de pilotage '!B3))</f>
+        <f>'💰 Coût total'!G25</f>
         <v>0</v>
       </c>
       <c r="D15" s="14">
-        <f t="shared" ref="D15" si="1">C15-B15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="11" t="str">
-        <f>IF(C15=0,"",(C15/B15))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>209</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="14">
-        <f>IF(B7=0,0,('💰 Coût total'!B23/'📌 Indicateurs de pilotage '!B7))</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
-        <f>IF(B7=0,0,('💰 Coût total'!G23/'📌 Indicateurs de pilotage '!B7))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="14">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>211</v>
-      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="14">
+        <f>IF(B3=0,0,(('📊 Données comptables'!C82)/B3))</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <f>IF(B3=0,0,(('📊 Données comptables'!D82+'📊 Données comptables'!E82+'📊 Données comptables'!F82+'📊 Données comptables'!G82)/'📌 Indicateurs de pilotage '!B3))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" ref="D17" si="2">C17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>IF(C17=0,"",(C17/B17))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="14">
+        <f>IF(B7=0,0,('💰 Coût total'!B23/'📌 Indicateurs de pilotage '!B7))</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <f>IF(B7=0,0,('💰 Coût total'!G23/'📌 Indicateurs de pilotage '!B7))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <f>C20-B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="14">
         <f>B11*B7</f>
         <v>0</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C23" s="14">
         <f>(C11-('📊 Données comptables'!H3+'📊 Données comptables'!H4+'📊 Données comptables'!H6))</f>
         <v>0</v>
       </c>
-      <c r="D21" s="14">
-        <f>C21-B21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="D23" s="14">
+        <f>C23-B23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="16">
+        <f>IF(B11=0,0,(B23/B11))</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <f>IF(C11=0,0,(C23/C11))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <f>C26-B26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="14">
+        <f>B23-'💰 Coût total'!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <f>C23-'💰 Coût total'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <f>C29-B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="16">
-        <f>IF(B11=0,0,(B21/B11))</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <f>IF(C11=0,0,(C21/C11))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <f>C24-B24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="B32" s="16">
+        <f>IF(B11=0,0,(B29/B11))</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <f>IF(C11=0,0,(C29/C11))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <f>C32-B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="14">
-        <f>B21-'💰 Coût total'!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
-        <f>C21-'💰 Coût total'!G23</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
-        <f>C27-B27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="16">
-        <f>IF(B11=0,0,(B27/B11))</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <f>IF(C11=0,0,(C27/C11))</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <f>C30-B30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6978,7 +6989,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B30:C30">
+  <conditionalFormatting sqref="B32:C32">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6986,7 +6997,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D27">
+  <conditionalFormatting sqref="B29:D29">
     <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6994,7 +7005,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7002,7 +7013,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D23">
     <cfRule type="cellIs" dxfId="9" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7010,7 +7021,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7018,15 +7029,15 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>$B$30&gt;$C$30</formula>
+      <formula>$B$32&gt;$C$32</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="12">
-      <formula>$C$30&gt;=$B$30</formula>
+      <formula>$C$32&gt;=$B$32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11 E15">
+  <conditionalFormatting sqref="E11 E17">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -7034,7 +7045,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
+  <conditionalFormatting sqref="E12:E15">
     <cfRule type="cellIs" dxfId="1" priority="35" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
